--- a/data_3.xlsx
+++ b/data_3.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.27934593644617</v>
+        <v>1.5541398352249143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1849910200196207</v>
+        <v>0.12418228446045106</v>
       </c>
       <c r="D2" t="n">
-        <v>4.805097687160455</v>
+        <v>4.359514448375525</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1877864464669142</v>
+        <v>0.1696121348062728</v>
       </c>
       <c r="F2" t="n">
         <v>0.0535007673348464</v>
@@ -129,16 +129,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>8.78385203014915</v>
+        <v>2.5362424518627242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2209366230822306</v>
+        <v>0.2322588288817414</v>
       </c>
       <c r="D3" t="n">
-        <v>9.328050897368339</v>
+        <v>8.188025765384621</v>
       </c>
       <c r="E3" t="n">
-        <v>0.38193210257577953</v>
+        <v>0.3312722579773095</v>
       </c>
       <c r="F3" t="n">
         <v>0.2800953294902867</v>
@@ -149,16 +149,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7.5245373438128835</v>
+        <v>2.7823121882969617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5940723568981487</v>
+        <v>0.6435588866578076</v>
       </c>
       <c r="D4" t="n">
-        <v>11.09977405298227</v>
+        <v>9.700153459093137</v>
       </c>
       <c r="E4" t="n">
-        <v>0.46312623977713596</v>
+        <v>0.3987320838556088</v>
       </c>
       <c r="F4" t="n">
         <v>0.6664039031748668</v>
